--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.8 orgtree local/org_military_ngo_edited1_Esther.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.8 orgtree local/org_military_ngo_edited1_Esther.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.9 orgs local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.8 orgtree local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A4952E-DD5F-4060-BC71-4CDCE15CA39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF0A22B-D93E-457C-8122-9EFFE621C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3405,13 +3405,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3717,13 +3722,14 @@
   <dimension ref="A1:L912"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="35.36328125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="32.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="67.36328125" style="2" customWidth="1"/>
     <col min="5" max="7" width="19.6328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.81640625" style="2" customWidth="1"/>
@@ -3735,7 +3741,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1105</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3773,7 +3779,7 @@
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3790,7 +3796,7 @@
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3804,7 +3810,7 @@
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3821,7 +3827,7 @@
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3838,7 +3844,7 @@
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3875,7 +3881,7 @@
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4012,7 +4018,7 @@
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4043,7 +4049,7 @@
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -7791,7 +7797,7 @@
       <c r="A226" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="5">
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -7805,7 +7811,7 @@
       <c r="A227" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="5">
         <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -7822,7 +7828,7 @@
       <c r="A228" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="5">
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -7836,7 +7842,7 @@
       <c r="A229" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="5">
         <v>1</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -7853,7 +7859,7 @@
       <c r="A230" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="5">
         <v>1</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -7873,7 +7879,7 @@
       <c r="A231" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="5">
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -7890,7 +7896,7 @@
       <c r="A232" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="5">
         <v>1</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -7907,7 +7913,7 @@
       <c r="A233" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="5">
         <v>1</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -7927,7 +7933,7 @@
       <c r="A234" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="5">
         <v>1</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -7947,7 +7953,7 @@
       <c r="A235" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="5">
         <v>1</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -7964,7 +7970,7 @@
       <c r="A236" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="5">
         <v>1</v>
       </c>
       <c r="C236" s="2" t="s">
@@ -7998,7 +8004,7 @@
       <c r="A238" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="5">
         <v>1</v>
       </c>
       <c r="C238" s="2" t="s">
@@ -8015,7 +8021,7 @@
       <c r="A239" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="5">
         <v>1</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -8032,7 +8038,7 @@
       <c r="A240" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="5">
         <v>1</v>
       </c>
       <c r="C240" s="2" t="s">
@@ -8049,7 +8055,7 @@
       <c r="A241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="5">
         <v>1</v>
       </c>
       <c r="C241" s="2" t="s">
@@ -8066,7 +8072,7 @@
       <c r="A242" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="5">
         <v>1</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -8086,7 +8092,7 @@
       <c r="A243" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="5">
         <v>1</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -8106,7 +8112,7 @@
       <c r="A244" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="5">
         <v>1</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -8123,7 +8129,7 @@
       <c r="A245" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="5">
         <v>1</v>
       </c>
       <c r="C245" s="2" t="s">
@@ -8140,7 +8146,7 @@
       <c r="A246" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="5">
         <v>1</v>
       </c>
       <c r="C246" s="2" t="s">
@@ -8157,7 +8163,7 @@
       <c r="A247" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="5">
         <v>1</v>
       </c>
       <c r="C247" s="2" t="s">
@@ -8191,7 +8197,7 @@
       <c r="A249" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="5">
         <v>1</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -8208,7 +8214,7 @@
       <c r="A250" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="5">
         <v>1</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -8222,7 +8228,7 @@
       <c r="A251" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="5">
         <v>1</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -8239,7 +8245,7 @@
       <c r="A252" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="5">
         <v>1</v>
       </c>
       <c r="C252" s="2" t="s">
@@ -8267,7 +8273,7 @@
       <c r="A254" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="5">
         <v>1</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -8284,7 +8290,7 @@
       <c r="A255" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="5">
         <v>1</v>
       </c>
       <c r="C255" s="2" t="s">
@@ -8301,7 +8307,7 @@
       <c r="A256" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="5">
         <v>1</v>
       </c>
       <c r="C256" s="2" t="s">
@@ -8318,7 +8324,7 @@
       <c r="A257" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="5">
         <v>1</v>
       </c>
       <c r="C257" s="2" t="s">
@@ -8335,7 +8341,7 @@
       <c r="A258" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="5">
         <v>1</v>
       </c>
       <c r="C258" s="2" t="s">
@@ -8352,7 +8358,7 @@
       <c r="A259" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="5">
         <v>1</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -8369,7 +8375,7 @@
       <c r="A260" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="5">
         <v>1</v>
       </c>
       <c r="C260" s="2" t="s">
@@ -8386,7 +8392,7 @@
       <c r="A261" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="5">
         <v>1</v>
       </c>
       <c r="C261" s="2" t="s">
@@ -8403,7 +8409,7 @@
       <c r="A262" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="5">
         <v>1</v>
       </c>
       <c r="C262" s="2" t="s">
@@ -8451,7 +8457,7 @@
       <c r="A265" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="5">
         <v>1</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -8471,7 +8477,7 @@
       <c r="A266" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="5">
         <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -8533,7 +8539,7 @@
       <c r="A270" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="5">
         <v>1</v>
       </c>
       <c r="C270" s="2" t="s">
@@ -8553,7 +8559,7 @@
       <c r="A271" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="5">
         <v>1</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -8570,7 +8576,7 @@
       <c r="A272" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="5">
         <v>1</v>
       </c>
       <c r="C272" s="2" t="s">
@@ -8587,7 +8593,7 @@
       <c r="A273" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="5">
         <v>1</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -8604,7 +8610,7 @@
       <c r="A274" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="5">
         <v>1</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -8624,7 +8630,7 @@
       <c r="A275" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="5">
         <v>1</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -8775,7 +8781,7 @@
       <c r="A283" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="5">
         <v>1</v>
       </c>
       <c r="C283" s="2" t="s">
@@ -9032,7 +9038,7 @@
       <c r="A293" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="5">
         <v>1</v>
       </c>
       <c r="C293" s="2" t="s">
@@ -9061,7 +9067,7 @@
       <c r="A294" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="5">
         <v>1</v>
       </c>
       <c r="C294" s="2" t="s">
@@ -9173,7 +9179,7 @@
       <c r="A299" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="5">
         <v>1</v>
       </c>
       <c r="C299" s="2" t="s">
@@ -9553,7 +9559,7 @@
       <c r="A312" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="5">
         <v>1</v>
       </c>
       <c r="C312" s="2" t="s">
@@ -10399,7 +10405,7 @@
       <c r="A348" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348" s="5">
         <v>1</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -10572,7 +10578,7 @@
       <c r="A355" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355" s="5">
         <v>1</v>
       </c>
       <c r="C355" s="2" t="s">
@@ -10757,7 +10763,7 @@
       <c r="A362" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362" s="5">
         <v>1</v>
       </c>
       <c r="C362" s="2" t="s">
@@ -10988,7 +10994,7 @@
       <c r="A371" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371" s="5">
         <v>1</v>
       </c>
       <c r="C371" s="2" t="s">
@@ -11268,7 +11274,7 @@
       <c r="A382" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382" s="5">
         <v>1</v>
       </c>
       <c r="C382" s="2" t="s">
@@ -11539,7 +11545,7 @@
       <c r="A393" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393" s="5">
         <v>1</v>
       </c>
       <c r="C393" s="2" t="s">
@@ -12353,7 +12359,7 @@
       <c r="A425" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B425" s="2">
+      <c r="B425" s="5">
         <v>1</v>
       </c>
       <c r="C425" s="2" t="s">
@@ -12694,7 +12700,7 @@
       <c r="A438" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B438" s="2">
+      <c r="B438" s="5">
         <v>1</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -12916,7 +12922,7 @@
       <c r="A447" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B447" s="2">
+      <c r="B447" s="5">
         <v>1</v>
       </c>
       <c r="C447" s="2" t="s">
@@ -13049,7 +13055,7 @@
       <c r="A452" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B452" s="2">
+      <c r="B452" s="5">
         <v>1</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -13949,7 +13955,7 @@
       <c r="A503" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B503" s="2">
+      <c r="B503" s="5">
         <v>1</v>
       </c>
       <c r="C503" s="2" t="s">
@@ -13969,7 +13975,7 @@
       <c r="A504" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B504" s="2">
+      <c r="B504" s="5">
         <v>1</v>
       </c>
       <c r="C504" s="2" t="s">
@@ -13989,7 +13995,7 @@
       <c r="A505" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B505" s="2">
+      <c r="B505" s="5">
         <v>1</v>
       </c>
       <c r="C505" s="2" t="s">
@@ -14613,7 +14619,7 @@
       <c r="A544" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B544" s="2">
+      <c r="B544" s="5">
         <v>1</v>
       </c>
       <c r="C544" s="2" t="s">
@@ -14633,7 +14639,7 @@
       <c r="A545" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B545" s="2">
+      <c r="B545" s="5">
         <v>1</v>
       </c>
       <c r="C545" s="2" t="s">
@@ -14650,7 +14656,7 @@
       <c r="A546" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B546" s="2">
+      <c r="B546" s="5">
         <v>1</v>
       </c>
       <c r="C546" s="2" t="s">
@@ -16045,7 +16051,7 @@
       <c r="A600" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B600" s="2">
+      <c r="B600" s="5">
         <v>1</v>
       </c>
       <c r="C600" s="2" t="s">
@@ -16074,7 +16080,7 @@
       <c r="A601" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B601" s="2">
+      <c r="B601" s="5">
         <v>1</v>
       </c>
       <c r="C601" s="2" t="s">
@@ -16106,7 +16112,7 @@
       <c r="A602" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B602" s="2">
+      <c r="B602" s="5">
         <v>1</v>
       </c>
       <c r="C602" s="2" t="s">
@@ -16161,7 +16167,7 @@
       <c r="A604" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B604" s="2">
+      <c r="B604" s="5">
         <v>1</v>
       </c>
       <c r="C604" s="2" t="s">
@@ -16409,7 +16415,7 @@
       <c r="A614" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B614" s="2">
+      <c r="B614" s="5">
         <v>1</v>
       </c>
       <c r="C614" s="2" t="s">
@@ -16553,7 +16559,7 @@
       <c r="A620" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B620" s="2">
+      <c r="B620" s="5">
         <v>1</v>
       </c>
       <c r="C620" s="2" t="s">
@@ -16602,7 +16608,7 @@
       <c r="A622" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B622" s="2">
+      <c r="B622" s="5">
         <v>1</v>
       </c>
       <c r="C622" s="2" t="s">
@@ -16680,7 +16686,7 @@
       <c r="A625" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B625" s="2">
+      <c r="B625" s="5">
         <v>1</v>
       </c>
       <c r="C625" s="2" t="s">
@@ -16827,7 +16833,7 @@
       <c r="A631" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B631" s="2">
+      <c r="B631" s="5">
         <v>1</v>
       </c>
       <c r="C631" s="2" t="s">
@@ -16853,7 +16859,7 @@
       <c r="A632" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B632" s="2">
+      <c r="B632" s="5">
         <v>1</v>
       </c>
       <c r="C632" s="2" t="s">
@@ -16902,7 +16908,7 @@
       <c r="A634" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B634" s="2">
+      <c r="B634" s="5">
         <v>1</v>
       </c>
       <c r="C634" s="2" t="s">
@@ -17049,7 +17055,7 @@
       <c r="A640" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B640" s="2">
+      <c r="B640" s="5">
         <v>1</v>
       </c>
       <c r="C640" s="2" t="s">
@@ -17075,7 +17081,7 @@
       <c r="A641" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B641" s="2">
+      <c r="B641" s="5">
         <v>1</v>
       </c>
       <c r="C641" s="2" t="s">
@@ -17101,7 +17107,7 @@
       <c r="A642" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B642" s="2">
+      <c r="B642" s="5">
         <v>1</v>
       </c>
       <c r="C642" s="2" t="s">
@@ -17127,7 +17133,7 @@
       <c r="A643" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B643" s="2">
+      <c r="B643" s="5">
         <v>1</v>
       </c>
       <c r="C643" s="2" t="s">
@@ -17156,7 +17162,7 @@
       <c r="A644" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B644" s="2">
+      <c r="B644" s="5">
         <v>1</v>
       </c>
       <c r="C644" s="2" t="s">
@@ -17208,7 +17214,7 @@
       <c r="A646" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B646" s="2">
+      <c r="B646" s="5">
         <v>1</v>
       </c>
       <c r="C646" s="2" t="s">
@@ -17234,7 +17240,7 @@
       <c r="A647" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B647" s="2">
+      <c r="B647" s="5">
         <v>1</v>
       </c>
       <c r="C647" s="2" t="s">
@@ -17260,7 +17266,7 @@
       <c r="A648" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B648" s="2">
+      <c r="B648" s="5">
         <v>1</v>
       </c>
       <c r="C648" s="2" t="s">
@@ -17335,7 +17341,7 @@
       <c r="A651" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B651" s="2">
+      <c r="B651" s="5">
         <v>1</v>
       </c>
       <c r="C651" s="2" t="s">
@@ -17364,7 +17370,7 @@
       <c r="A652" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B652" s="2">
+      <c r="B652" s="5">
         <v>1</v>
       </c>
       <c r="C652" s="2" t="s">
@@ -17413,7 +17419,7 @@
       <c r="A654" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B654" s="2">
+      <c r="B654" s="5">
         <v>1</v>
       </c>
       <c r="C654" s="2" t="s">
@@ -17488,7 +17494,7 @@
       <c r="A657" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B657" s="2">
+      <c r="B657" s="5">
         <v>1</v>
       </c>
       <c r="C657" s="2" t="s">
@@ -18469,7 +18475,7 @@
       <c r="A696" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B696" s="2">
+      <c r="B696" s="5">
         <v>1</v>
       </c>
       <c r="C696" s="2" t="s">
@@ -18683,7 +18689,7 @@
       <c r="A704" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B704" s="2">
+      <c r="B704" s="5">
         <v>1</v>
       </c>
       <c r="C704" s="2" t="s">
@@ -18712,7 +18718,7 @@
       <c r="A705" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B705" s="2">
+      <c r="B705" s="5">
         <v>1</v>
       </c>
       <c r="C705" s="2" t="s">
@@ -18775,7 +18781,7 @@
       <c r="A708" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B708" s="2">
+      <c r="B708" s="5">
         <v>1</v>
       </c>
       <c r="C708" s="2" t="s">
@@ -18804,7 +18810,7 @@
       <c r="A709" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B709" s="2">
+      <c r="B709" s="5">
         <v>1</v>
       </c>
       <c r="C709" s="2" t="s">
@@ -18830,7 +18836,7 @@
       <c r="A710" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B710" s="2">
+      <c r="B710" s="5">
         <v>1</v>
       </c>
       <c r="C710" s="2" t="s">
@@ -18856,7 +18862,7 @@
       <c r="A711" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B711" s="2">
+      <c r="B711" s="5">
         <v>1</v>
       </c>
       <c r="C711" s="2" t="s">
@@ -18911,7 +18917,7 @@
       <c r="A713" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B713" s="2">
+      <c r="B713" s="5">
         <v>1</v>
       </c>
       <c r="C713" s="2" t="s">
@@ -18940,7 +18946,7 @@
       <c r="A714" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B714" s="2">
+      <c r="B714" s="5">
         <v>1</v>
       </c>
       <c r="C714" s="2" t="s">
@@ -18966,7 +18972,7 @@
       <c r="A715" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B715" s="2">
+      <c r="B715" s="5">
         <v>1</v>
       </c>
       <c r="C715" s="2" t="s">
@@ -20188,7 +20194,7 @@
       <c r="A768" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B768" s="2">
+      <c r="B768" s="5">
         <v>1</v>
       </c>
       <c r="C768" s="2" t="s">
@@ -20214,7 +20220,7 @@
       <c r="A769" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B769" s="2">
+      <c r="B769" s="5">
         <v>1</v>
       </c>
       <c r="C769" s="2" t="s">
@@ -20263,7 +20269,7 @@
       <c r="A771" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B771" s="2">
+      <c r="B771" s="5">
         <v>1</v>
       </c>
       <c r="C771" s="2" t="s">
@@ -20289,7 +20295,7 @@
       <c r="A772" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B772" s="2">
+      <c r="B772" s="5">
         <v>1</v>
       </c>
       <c r="C772" s="2" t="s">
@@ -20315,7 +20321,7 @@
       <c r="A773" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B773" s="2">
+      <c r="B773" s="5">
         <v>1</v>
       </c>
       <c r="C773" s="2" t="s">
@@ -20415,7 +20421,7 @@
       <c r="A778" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B778" s="2">
+      <c r="B778" s="5">
         <v>1</v>
       </c>
       <c r="C778" s="2" t="s">
@@ -20444,7 +20450,7 @@
       <c r="A779" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B779" s="2">
+      <c r="B779" s="5">
         <v>1</v>
       </c>
       <c r="C779" s="2" t="s">
@@ -20470,7 +20476,7 @@
       <c r="A780" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B780" s="2">
+      <c r="B780" s="5">
         <v>1</v>
       </c>
       <c r="C780" s="2" t="s">
@@ -21816,7 +21822,7 @@
       <c r="A841" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B841" s="2">
+      <c r="B841" s="5">
         <v>1</v>
       </c>
       <c r="C841" s="2" t="s">
@@ -21836,7 +21842,7 @@
       <c r="A842" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B842" s="2">
+      <c r="B842" s="5">
         <v>1</v>
       </c>
       <c r="C842" s="2" t="s">
@@ -22085,7 +22091,7 @@
       <c r="A854" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B854" s="2">
+      <c r="B854" s="5">
         <v>1</v>
       </c>
       <c r="C854" s="2" t="s">
@@ -22108,7 +22114,7 @@
       <c r="A855" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B855" s="2">
+      <c r="B855" s="5">
         <v>1</v>
       </c>
       <c r="C855" s="2" t="s">
@@ -22128,7 +22134,7 @@
       <c r="A856" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B856" s="2">
+      <c r="B856" s="5">
         <v>1</v>
       </c>
       <c r="C856" s="2" t="s">
@@ -22148,7 +22154,7 @@
       <c r="A857" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B857" s="2">
+      <c r="B857" s="5">
         <v>1</v>
       </c>
       <c r="C857" s="2" t="s">
@@ -22171,7 +22177,7 @@
       <c r="A858" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B858" s="2">
+      <c r="B858" s="5">
         <v>1</v>
       </c>
       <c r="C858" s="2" t="s">
@@ -22194,7 +22200,7 @@
       <c r="A859" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B859" s="2">
+      <c r="B859" s="5">
         <v>1</v>
       </c>
       <c r="C859" s="2" t="s">
@@ -22214,7 +22220,7 @@
       <c r="A860" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B860" s="2">
+      <c r="B860" s="5">
         <v>1</v>
       </c>
       <c r="C860" s="2" t="s">
@@ -22237,7 +22243,7 @@
       <c r="A861" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B861" s="2">
+      <c r="B861" s="5">
         <v>1</v>
       </c>
       <c r="C861" s="2" t="s">
@@ -22263,7 +22269,7 @@
       <c r="A862" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B862" s="2">
+      <c r="B862" s="5">
         <v>1</v>
       </c>
       <c r="C862" s="2" t="s">
@@ -22283,7 +22289,7 @@
       <c r="A863" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B863" s="2">
+      <c r="B863" s="5">
         <v>1</v>
       </c>
       <c r="C863" s="2" t="s">
@@ -22303,7 +22309,7 @@
       <c r="A864" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B864" s="2">
+      <c r="B864" s="5">
         <v>1</v>
       </c>
       <c r="C864" s="2" t="s">
@@ -22326,7 +22332,7 @@
       <c r="A865" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B865" s="2">
+      <c r="B865" s="5">
         <v>1</v>
       </c>
       <c r="C865" s="2" t="s">
@@ -22346,7 +22352,7 @@
       <c r="A866" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B866" s="2">
+      <c r="B866" s="5">
         <v>1</v>
       </c>
       <c r="C866" s="2" t="s">
@@ -22366,7 +22372,7 @@
       <c r="A867" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B867" s="2">
+      <c r="B867" s="5">
         <v>1</v>
       </c>
       <c r="C867" s="2" t="s">
@@ -22386,7 +22392,7 @@
       <c r="A868" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B868" s="2">
+      <c r="B868" s="5">
         <v>1</v>
       </c>
       <c r="C868" s="2" t="s">
@@ -22406,7 +22412,7 @@
       <c r="A869" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B869" s="2">
+      <c r="B869" s="5">
         <v>1</v>
       </c>
       <c r="C869" s="2" t="s">
@@ -22426,7 +22432,7 @@
       <c r="A870" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B870" s="2">
+      <c r="B870" s="5">
         <v>1</v>
       </c>
       <c r="C870" s="2" t="s">
@@ -22446,7 +22452,7 @@
       <c r="A871" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B871" s="2">
+      <c r="B871" s="5">
         <v>1</v>
       </c>
       <c r="C871" s="2" t="s">
@@ -22466,7 +22472,7 @@
       <c r="A872" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B872" s="2">
+      <c r="B872" s="5">
         <v>1</v>
       </c>
       <c r="C872" s="2" t="s">
@@ -22599,7 +22605,7 @@
       <c r="A880" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B880" s="2">
+      <c r="B880" s="5">
         <v>1</v>
       </c>
       <c r="C880" s="2" t="s">
@@ -22619,7 +22625,7 @@
       <c r="A881" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B881" s="2">
+      <c r="B881" s="5">
         <v>1</v>
       </c>
       <c r="C881" s="2" t="s">
@@ -23155,7 +23161,7 @@
       <c r="A906" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B906" s="2">
+      <c r="B906" s="5">
         <v>1</v>
       </c>
       <c r="C906" s="2" t="s">
@@ -23181,6 +23187,7 @@
       <c r="A907" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="B907" s="6"/>
       <c r="C907" s="3" t="s">
         <v>195</v>
       </c>
@@ -23195,6 +23202,7 @@
       <c r="A908" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="B908" s="6"/>
       <c r="C908" s="3" t="s">
         <v>195</v>
       </c>
@@ -23224,6 +23232,7 @@
       <c r="A909" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="B909" s="6"/>
       <c r="C909" s="3" t="s">
         <v>198</v>
       </c>
@@ -23238,6 +23247,7 @@
       <c r="A910" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="B910" s="6"/>
       <c r="C910" s="3" t="s">
         <v>198</v>
       </c>
@@ -23307,6 +23317,6 @@
     <sortCondition ref="D2:D912"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>